--- a/observations/orbit_plans/mtp094/nomad_mtp094_plan_generic.xlsx
+++ b/observations/orbit_plans/mtp094/nomad_mtp094_plan_generic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp094\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FA1F53-ABAC-4EC0-B92E-BC933D1EE41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48236CAF-6E2B-426C-A28F-10B42768125B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1296" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="522">
   <si>
     <t>#orbitType</t>
   </si>
@@ -1569,6 +1569,36 @@
   </si>
   <si>
     <t>6SUBD CO2 H2O #14</t>
+  </si>
+  <si>
+    <t>CO 2SUBD #1</t>
+  </si>
+  <si>
+    <t>Nominal 4SUBD #2</t>
+  </si>
+  <si>
+    <t>Ice H2O 2SUBD #1</t>
+  </si>
+  <si>
+    <t>Nominal 6SUBD #2</t>
+  </si>
+  <si>
+    <t>Ice CO 2SUBD #2</t>
+  </si>
+  <si>
+    <t>H2O CO 3SUBD #2</t>
+  </si>
+  <si>
+    <t>Surface Ice 6SUBD 01</t>
+  </si>
+  <si>
+    <t>Nominal 4SUBD 01</t>
+  </si>
+  <si>
+    <t>Nominal 3SUBD 01</t>
+  </si>
+  <si>
+    <t>H2O CO 2SUBD #1</t>
   </si>
 </sst>
 </file>
@@ -1945,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="G326" sqref="G326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2041,7 +2071,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
@@ -2155,7 +2185,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>512</v>
       </c>
       <c r="I10" t="s">
         <v>8</v>
@@ -2566,7 +2596,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>7</v>
+        <v>513</v>
       </c>
       <c r="I31" t="s">
         <v>8</v>
@@ -2745,7 +2775,7 @@
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>7</v>
+        <v>514</v>
       </c>
       <c r="I41" t="s">
         <v>8</v>
@@ -2882,7 +2912,7 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="I48" t="s">
         <v>8</v>
@@ -3010,10 +3040,10 @@
         <v>1</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>6</v>
@@ -3033,7 +3063,7 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="I56" t="s">
         <v>8</v>
@@ -3175,7 +3205,7 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>7</v>
+        <v>515</v>
       </c>
       <c r="I64" t="s">
         <v>8</v>
@@ -3215,10 +3245,10 @@
         <v>1</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>6</v>
@@ -3414,7 +3444,7 @@
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>7</v>
+        <v>512</v>
       </c>
       <c r="I77" t="s">
         <v>8</v>
@@ -3454,10 +3484,10 @@
         <v>1</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>6</v>
@@ -3560,7 +3590,7 @@
         <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>7</v>
+        <v>512</v>
       </c>
       <c r="I84" t="s">
         <v>8</v>
@@ -3664,10 +3694,10 @@
         <v>1</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>6</v>
@@ -3710,7 +3740,7 @@
         <v>3</v>
       </c>
       <c r="H93" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="I93" t="s">
         <v>8</v>
@@ -3875,7 +3905,7 @@
         <v>3</v>
       </c>
       <c r="H102" t="s">
-        <v>7</v>
+        <v>515</v>
       </c>
       <c r="I102" t="s">
         <v>8</v>
@@ -3975,7 +4005,7 @@
         <v>3</v>
       </c>
       <c r="H107" t="s">
-        <v>7</v>
+        <v>512</v>
       </c>
       <c r="I107" t="s">
         <v>8</v>
@@ -4080,7 +4110,7 @@
         <v>3</v>
       </c>
       <c r="H113" t="s">
-        <v>7</v>
+        <v>516</v>
       </c>
       <c r="I113" t="s">
         <v>8</v>
@@ -4268,7 +4298,7 @@
         <v>3</v>
       </c>
       <c r="H123" t="s">
-        <v>7</v>
+        <v>517</v>
       </c>
       <c r="I123" t="s">
         <v>8</v>
@@ -4436,7 +4466,7 @@
         <v>3</v>
       </c>
       <c r="H132" t="s">
-        <v>7</v>
+        <v>518</v>
       </c>
       <c r="I132" t="s">
         <v>8</v>
@@ -4655,7 +4685,7 @@
         <v>3</v>
       </c>
       <c r="H144" t="s">
-        <v>7</v>
+        <v>519</v>
       </c>
       <c r="I144" t="s">
         <v>8</v>
@@ -4791,7 +4821,7 @@
         <v>3</v>
       </c>
       <c r="H152" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="I152" t="s">
         <v>8</v>
@@ -5025,7 +5055,7 @@
         <v>3</v>
       </c>
       <c r="H164" t="s">
-        <v>7</v>
+        <v>518</v>
       </c>
       <c r="I164" t="s">
         <v>8</v>
@@ -5451,7 +5481,7 @@
         <v>3</v>
       </c>
       <c r="H188" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="I188" t="s">
         <v>8</v>
@@ -5505,10 +5535,10 @@
         <v>1</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>6</v>
@@ -5590,10 +5620,10 @@
         <v>1</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>3</v>
@@ -5627,7 +5657,7 @@
         <v>3</v>
       </c>
       <c r="H198" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="I198" t="s">
         <v>8</v>
@@ -5658,10 +5688,10 @@
         <v>1</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>508</v>
+        <v>15</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>508</v>
+        <v>15</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>3</v>
@@ -5760,10 +5790,10 @@
         <v>1</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>3</v>
@@ -5806,10 +5836,10 @@
         <v>1</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>508</v>
+        <v>15</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>508</v>
+        <v>15</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>3</v>
@@ -5838,10 +5868,10 @@
         <v>1</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>3</v>
@@ -5921,7 +5951,7 @@
         <v>3</v>
       </c>
       <c r="H213" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="I213" t="s">
         <v>8</v>
@@ -5993,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G216" s="3" t="s">
         <v>6</v>
@@ -6076,10 +6106,10 @@
         <v>1</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>3</v>
@@ -6122,10 +6152,10 @@
         <v>1</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>3</v>
@@ -6168,10 +6198,10 @@
         <v>1</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>508</v>
+        <v>15</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>508</v>
+        <v>15</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>3</v>
@@ -6200,7 +6230,7 @@
         <v>3</v>
       </c>
       <c r="H225" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="I225" t="s">
         <v>8</v>
@@ -6217,10 +6247,10 @@
         <v>1</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>3</v>
@@ -6258,10 +6288,10 @@
         <v>3</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G227" s="3" t="s">
         <v>6</v>
@@ -6392,10 +6422,10 @@
         <v>1</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>510</v>
+        <v>15</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>510</v>
+        <v>15</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>3</v>
@@ -6443,10 +6473,10 @@
         <v>1</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>511</v>
+        <v>15</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>511</v>
+        <v>15</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>3</v>
@@ -6516,10 +6546,10 @@
         <v>3</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G239" s="3" t="s">
         <v>6</v>
@@ -6548,10 +6578,10 @@
         <v>3</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G240" s="3" t="s">
         <v>6</v>
@@ -6571,7 +6601,7 @@
         <v>3</v>
       </c>
       <c r="H241" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="I241" t="s">
         <v>8</v>
@@ -6602,10 +6632,10 @@
         <v>1</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>3</v>
@@ -6671,10 +6701,10 @@
         <v>1</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>508</v>
+        <v>15</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>508</v>
+        <v>15</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>3</v>
@@ -6708,10 +6738,10 @@
         <v>1</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>3</v>
@@ -6754,10 +6784,10 @@
         <v>1</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>3</v>
@@ -6841,10 +6871,10 @@
         <v>3</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G253" s="3" t="s">
         <v>6</v>
@@ -6886,10 +6916,10 @@
         <v>1</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>510</v>
+        <v>15</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>510</v>
+        <v>15</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>3</v>
@@ -6945,10 +6975,10 @@
         <v>1</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>511</v>
+        <v>15</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>511</v>
+        <v>15</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>3</v>
@@ -7009,7 +7039,7 @@
         <v>3</v>
       </c>
       <c r="H262" t="s">
-        <v>7</v>
+        <v>520</v>
       </c>
       <c r="I262" t="s">
         <v>8</v>
@@ -7026,10 +7056,10 @@
         <v>1</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>3</v>
@@ -7067,10 +7097,10 @@
         <v>3</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G264" s="3" t="s">
         <v>6</v>
@@ -7233,10 +7263,10 @@
         <v>1</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>510</v>
+        <v>15</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>510</v>
+        <v>15</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>3</v>
@@ -7279,10 +7309,10 @@
         <v>1</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>3</v>
@@ -7325,7 +7355,7 @@
         <v>3</v>
       </c>
       <c r="H276" t="s">
-        <v>7</v>
+        <v>521</v>
       </c>
       <c r="I276" t="s">
         <v>8</v>
@@ -7351,10 +7381,10 @@
         <v>3</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G277" s="3" t="s">
         <v>6</v>
@@ -7540,10 +7570,10 @@
         <v>1</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>511</v>
+        <v>15</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>511</v>
+        <v>15</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>3</v>
@@ -7572,10 +7602,10 @@
         <v>1</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>3</v>
@@ -7618,7 +7648,7 @@
         <v>3</v>
       </c>
       <c r="H289" t="s">
-        <v>7</v>
+        <v>515</v>
       </c>
       <c r="I289" t="s">
         <v>8</v>
@@ -7695,10 +7725,10 @@
         <v>1</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>511</v>
+        <v>15</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>511</v>
+        <v>15</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>3</v>
@@ -7838,7 +7868,7 @@
         <v>3</v>
       </c>
       <c r="H300" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="I300" t="s">
         <v>8</v>
@@ -7855,19 +7885,19 @@
         <v>1</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>508</v>
+        <v>15</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>508</v>
+        <v>15</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G301" s="3" t="s">
         <v>6</v>
@@ -7887,19 +7917,19 @@
         <v>1</v>
       </c>
       <c r="B302" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E302" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C302" s="1" t="s">
+      <c r="F302" s="3" t="s">
         <v>507</v>
-      </c>
-      <c r="D302" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E302" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="F302" s="3" t="s">
-        <v>509</v>
       </c>
       <c r="G302" s="3" t="s">
         <v>6</v>
@@ -7933,10 +7963,10 @@
         <v>1</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>510</v>
+        <v>15</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>510</v>
+        <v>15</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>3</v>
@@ -8025,10 +8055,10 @@
         <v>1</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>3</v>
@@ -8062,10 +8092,10 @@
         <v>1</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>508</v>
+        <v>15</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>508</v>
+        <v>15</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>3</v>
@@ -8122,10 +8152,10 @@
         <v>1</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>510</v>
+        <v>15</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>510</v>
+        <v>15</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>3</v>
@@ -8154,7 +8184,7 @@
         <v>3</v>
       </c>
       <c r="H314" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="I314" t="s">
         <v>8</v>
@@ -8185,10 +8215,10 @@
         <v>1</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>3</v>
@@ -8288,7 +8318,7 @@
         <v>3</v>
       </c>
       <c r="H321" t="s">
-        <v>7</v>
+        <v>519</v>
       </c>
       <c r="I321" t="s">
         <v>8</v>
@@ -8337,10 +8367,10 @@
         <v>1</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>508</v>
+        <v>15</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>508</v>
+        <v>15</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>3</v>
@@ -8479,10 +8509,10 @@
         <v>1</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>3</v>
@@ -8548,10 +8578,10 @@
         <v>1</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>510</v>
+        <v>15</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>510</v>
+        <v>15</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>3</v>
@@ -8640,7 +8670,7 @@
         <v>3</v>
       </c>
       <c r="H338" t="s">
-        <v>7</v>
+        <v>512</v>
       </c>
       <c r="I338" t="s">
         <v>8</v>
